--- a/biology/Médecine/Groupe_hospitalier_de_la_Pitié-Salpêtrière_-_Charles-Foix/Groupe_hospitalier_de_la_Pitié-Salpêtrière_-_Charles-Foix.xlsx
+++ b/biology/Médecine/Groupe_hospitalier_de_la_Pitié-Salpêtrière_-_Charles-Foix/Groupe_hospitalier_de_la_Pitié-Salpêtrière_-_Charles-Foix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_Piti%C3%A9-Salp%C3%AAtri%C3%A8re_-_Charles-Foix</t>
+          <t>Groupe_hospitalier_de_la_Pitié-Salpêtrière_-_Charles-Foix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le groupe hospitalier universitaire Pitié-Salpêtrière - Charles-Foix est un groupe hospitalier parisien rassemblant le CHU Pitié-Salpêtrière (lui-même issu de la fusion, en 1964, des hôpitaux de la Salpêtrière et de la Pitié) et le CHU gériatrique Charles-Foix et associant la faculté de médecine de la Sorbonne Université ainsi que la faculté de médecine et chirurgie dentaire sur le site de Charles-Foix. La fusion entre ces deux CHU fut mis en œuvre le 1er janvier 2011 dans le cadre de la réorganisation de l'Assistance publique - Hôpitaux de Paris en 12 groupes hospitaliers[1].
+Le groupe hospitalier universitaire Pitié-Salpêtrière - Charles-Foix est un groupe hospitalier parisien rassemblant le CHU Pitié-Salpêtrière (lui-même issu de la fusion, en 1964, des hôpitaux de la Salpêtrière et de la Pitié) et le CHU gériatrique Charles-Foix et associant la faculté de médecine de la Sorbonne Université ainsi que la faculté de médecine et chirurgie dentaire sur le site de Charles-Foix. La fusion entre ces deux CHU fut mis en œuvre le 1er janvier 2011 dans le cadre de la réorganisation de l'Assistance publique - Hôpitaux de Paris en 12 groupes hospitaliers.
 Ces deux groupes hospitaliers hébergent des centres de recherche d'envergure internationale, respectivement l'Institut du cerveau et de la moelle épinière à la Pitié-Salpêtrière et l’Institut de la longévité Charles-Foix, centre de recherche consacré au vieillissement.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_Piti%C3%A9-Salp%C3%AAtri%C3%A8re_-_Charles-Foix</t>
+          <t>Groupe_hospitalier_de_la_Pitié-Salpêtrière_-_Charles-Foix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des scènes de la saison 2 de la série télévisée Baron noir (2018) y sont tournées. Le roman de Victoria Mas, Le Bal des folles, aux Éditions Albin Michel s'y déroule.
 </t>
